--- a/biology/Botanique/Forêt_tordue/Forêt_tordue.xlsx
+++ b/biology/Botanique/Forêt_tordue/Forêt_tordue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_tordue</t>
+          <t>Forêt_tordue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt tordue (en polonais : Krzywy Las) est une curiosité naturelle d'une superficie d'environ 1,7 ha (17 000 m2), dans le powiat de Gryfino situé en Poméranie occidentale, en Pologne.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_tordue</t>
+          <t>Forêt_tordue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,12 @@
           <t>Théories sur la forme des arbres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Plusieurs théories existent pour expliquer la forme exceptionnelle de ces arbres.
-Besoins de la menuiserie
-Ces pins auraient été plantés en 1932 alors que la Poméranie était encore allemande et taillés pour former des bois courbés pour les besoins de la menuiserie (fabrication de chaises et meubles de forme arrondie)[2].
-Sapins de Noël
-Une autre théorie défendue par une équipe de chercheurs allemands prétend que cette parcelle aurait été exploitée en production de sapins de Noël suivant une technique de sylviculture proche de la conduite en cépée : les arbres sont coupés au-dessus du premier étage de branches, ce qui permet à la souche de repousser et d'être à nouveau exploitée quelques années plus tard[3].
-Légendes locales</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs théories existent pour expliquer la forme exceptionnelle de ces arbres.
+</t>
         </is>
       </c>
     </row>
@@ -530,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_tordue</t>
+          <t>Forêt_tordue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +555,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Théories sur la forme des arbres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Besoins de la menuiserie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces pins auraient été plantés en 1932 alors que la Poméranie était encore allemande et taillés pour former des bois courbés pour les besoins de la menuiserie (fabrication de chaises et meubles de forme arrondie).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Forêt_tordue</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_tordue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Théories sur la forme des arbres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sapins de Noël</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une autre théorie défendue par une équipe de chercheurs allemands prétend que cette parcelle aurait été exploitée en production de sapins de Noël suivant une technique de sylviculture proche de la conduite en cépée : les arbres sont coupés au-dessus du premier étage de branches, ce qui permet à la souche de repousser et d'être à nouveau exploitée quelques années plus tard.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Forêt_tordue</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_tordue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Forêts semblables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Haute-Loire (France), il existe aussi une forêt de pins déformés par l'activité humaine, la pinatelle du zouave : les pins, dits « de boulange » étaient taillés horizontalement pour servir dans les fours à pain de la ville du Puy-en-Velay[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Haute-Loire (France), il existe aussi une forêt de pins déformés par l'activité humaine, la pinatelle du zouave : les pins, dits « de boulange » étaient taillés horizontalement pour servir dans les fours à pain de la ville du Puy-en-Velay.
 La forêt dansante, sur l'isthme de Courlande dans l'oblast de Kaliningrad (Russie), est appelée ainsi du fait de ses arbres au tronc naturellement tordu.
 </t>
         </is>
